--- a/DOM_Banner/output/dept_banner/Rilwan Balogun_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Rilwan Balogun_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,19 +360,19 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>authors_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>author</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
@@ -385,163 +385,76 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>so_id</t>
+          <t>host_organization</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>host_organization</t>
+          <t>url</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>issn_l</t>
+          <t>license</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>url</t>
+          <t>version</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>pdf_url</t>
+          <t>oa_status</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>license</t>
+          <t>language</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>version</t>
+          <t>cited_by_count</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>first_page</t>
+          <t>publication_year</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>last_page</t>
+          <t>pmid</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>doi</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>issue</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>is_oa</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>is_oa_anywhere</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>oa_status</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>oa_url</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>any_repository_has_fulltext</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>language</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>grants</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>cited_by_count</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>publication_year</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>cited_by_api_url</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>ids</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>doi</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
           <t>type</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>referenced_works</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>related_works</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>is_paratext</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>is_retracted</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>Rilwan Balogun, Lin Ding, Palash Mallick, Mark Borgstrom, Hemanth K. Gavini, Rolando J. Leal, Sasha Taleban, Radhika Babaria, Juanita L. Merchant</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4383420486</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>Mo1251 A TOLL-LIKE RECEPTOR 9 (TLR9) SINGLE NUCLEOTIDE POLYMORPHISM MAY INCREASE COMPLICATIONS TO HELICOBACTER PYLORI INFECTION</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>list(au_id = c("https://openalex.org/A5040362845", "https://openalex.org/A5003317656", "https://openalex.org/A5086418565", "https://openalex.org/A5086586516", "https://openalex.org/A5087669535", "https://openalex.org/A5050709238", "https://openalex.org/A5001564898", "https://openalex.org/A5028304208", "https://openalex.org/A5042603101"), au_display_name = c("Rilwan Balogun", "Lin Ding", "Palash Mallick", "Mark Borgstrom", "Hemanth K. Gavini", "Rolando J. Leal", "Sasha Taleban", "Radhika Babaria", 
-"Juanita L. Merchant"), au_orcid = c(NA, "https://orcid.org/0000-0001-5381-3484", NA, NA, NA, NA, NA, NA, "https://orcid.org/0000-0002-6559-8184"), author_position = c("first", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "last"), au_affiliation_raw = c("", "", "", "", "", "", "", "", ""), institution_id = c(NA, NA, NA, NA, NA, NA, NA, NA, NA), institution_display_name = c(NA, NA, NA, NA, NA, NA, NA, NA, NA), institution_ror = c(NA, NA, NA, NA, NA, NA, NA, NA, NA), institution_country_code = c(NA, 
-NA, NA, NA, NA, NA, NA, NA, NA), institution_type = c(NA, NA, NA, NA, NA, NA, NA, NA, NA), institution_lineage = c(NA, NA, NA, NA, NA, NA, NA, NA, NA))</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
           <t>2023-05-01</t>
@@ -554,142 +467,57 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>https://openalex.org/S143352558</t>
+          <t>Elsevier BV</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Elsevier BV</t>
+          <t>https://doi.org/10.1016/s0016-5085(23)02857-3</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0016-5085</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1016/s0016-5085(23)02857-3</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>801</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>164</t>
-        </is>
-      </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>closed</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>https://api.openalex.org/works?filter=cites:W4383420486</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>c(openalex = "https://openalex.org/W4383420486", doi = "https://doi.org/10.1016/s0016-5085(23)02857-3")</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/s0016-5085(23)02857-3</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
           <t>article</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W2327710245", "https://openalex.org/W580083713", "https://openalex.org/W2314264549", "https://openalex.org/W2129961630", "https://openalex.org/W2047175036", "https://openalex.org/W2374198738", "https://openalex.org/W2148845369", "https://openalex.org/W2795535550", "https://openalex.org/W2032783993", "https://openalex.org/W2056254683")</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
         </is>
       </c>
     </row>

--- a/DOM_Banner/output/dept_banner/Rilwan Balogun_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Rilwan Balogun_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4383420486</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Mo1251 A TOLL-LIKE RECEPTOR 9 (TLR9) SINGLE NUCLEOTIDE POLYMORPHISM MAY INCREASE COMPLICATIONS TO HELICOBACTER PYLORI INFECTION</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2023-05-01</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Gastroenterology</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/s0016-5085(23)02857-3</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/s0016-5085(23)02857-3</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
